--- a/data/aplausos.xlsx
+++ b/data/aplausos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettegramatges/bitacora/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliettegramatges/bitacora_ruby/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{882C6AD1-A4A3-7549-A69A-0DBF60FEDE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EB979C-E204-024D-9123-7208D0D17C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{41D50509-63A5-1C4D-BBC4-5E8D78010E3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nombre</t>
   </si>
@@ -127,12 +127,21 @@
   <si>
     <t>Llega el tren</t>
   </si>
+  <si>
+    <t>Lanza el sombrero/pañuelo y aplaudimos</t>
+  </si>
+  <si>
+    <t>Dos personas mimican jugar tenis, cuando le pegan a la pelota el grupo aplaude</t>
+  </si>
+  <si>
+    <t>Dos personas mimican jugar ping pong, cuando le pegan a la pelota el grupo aplaude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,31 +150,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFB7B7B7"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,12 +189,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,7 +537,7 @@
   <dimension ref="A1:Z1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,11 +580,11 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -598,11 +610,11 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -628,11 +640,11 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -658,11 +670,11 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -688,11 +700,11 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -718,13 +730,13 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -750,11 +762,11 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -780,11 +792,11 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -810,11 +822,13 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -840,11 +854,11 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -870,11 +884,11 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -900,11 +914,13 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -930,11 +946,13 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -960,11 +978,11 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -990,11 +1008,11 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1020,11 +1038,11 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1050,13 +1068,13 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1082,11 +1100,11 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1112,11 +1130,11 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1142,11 +1160,11 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1172,11 +1190,11 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1202,11 +1220,11 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1232,11 +1250,11 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1262,11 +1280,11 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1292,11 +1310,11 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>

--- a/data/aplausos.xlsx
+++ b/data/aplausos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montserrat\Documents\UC\5tosemestre\OFG\bitacora\bit-cora_juegos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\softaff\bit-cora_juegos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1111F001-254C-49A4-8857-9F5383EF02BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DE5643-47B8-4B0E-93D8-15D3D32BFC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="1335" windowWidth="21600" windowHeight="11385" xr2:uid="{41D50509-63A5-1C4D-BBC4-5E8D78010E3B}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{41D50509-63A5-1C4D-BBC4-5E8D78010E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>Nombre</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Una persona tira un sombrero/pañuelo hacia arriba, el resto aplaude mientras esté en en aire</t>
-  </si>
-  <si>
-    <t>Gitana</t>
   </si>
   <si>
     <t>El globo</t>
@@ -533,6 +530,168 @@
 “Cuac cuac” (como patos 🦆)
 “Ruu ruu” (como palomas o búhos 🕊️🦉)</t>
   </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750382029/pngtree-cloud-rain-cartoon-image-clipart-vector-illustration-png-image_12492703_skyotv.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383725/istockphoto-968554692-612x612_msyael.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383702/821357_hq0gck.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383727/football-speeding-through-the-air-vector_itbhol.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383729/ff7c7bb4db4417b2bc9b63056f671790_xw7mpm.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383730/hand-drawn-doodle-style-cartoon-word-wow-free-vector_slgg73.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383732/bg_f8f8f8-flat_750x_075_f-pad_750x1000_f8f8f8_fnobhs.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383734/8b206bd6b866c13891250c0e7de22dc1_rtavpr.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383736/U2CXTNMELRC33MO4575ICMZUGI_rwnrde.avif</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383738/image_tpt9ro.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383741/6ef4e67e9704a20e058424727947ee52-ilustracion-de-globo-de-dibujos-animados_gstk8o.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383743/aae064f13332706feeab6b0708993946_yiqilx.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383745/funny-blue-number-seven-7-cartoon-character-vector_knq8n6.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383747/hand-draw-cute-racket-tennis-illustration-vector_qxrlny.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383749/istockphoto-938218100-612x612_gh9zam.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383750/032b12e175da9ca4242e84d9e55a3ca4_ltrl8c.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383754/800px-Slow_Dancer_Infobox_Manga_gjycca.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383755/51FdGrH4hyL._AC_480x480_oot6wh.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383756/depositphotos_3766494-stock-illustration-hush-emoticon_k0m3fp.webp</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383758/images22_xszqer.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383760/a8a6d677206a9e6d16907cdb32845d23_ltplxm.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383762/dibujo-coloreado-joven-corredor_1308-39489_ksy2eh.avif</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383764/ewnkelneg_w6rbbp.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383766/25d6067a9cfe34763fba98a1dbf5762d_s9moml.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383768/regulation-traffic-lights-icon-cartoon-style-vector_k4rifv.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383770/ilustracion-vectorial-espejo-dibujos-animados-dibujo-dibuyos-animados-espejo-lindo-diseno-superficie-reflectante-ludico_648083-597_dzvyoj.avif</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383772/92627503-kawaii-cardboard-boxes-stacked-in-colorful-silhouette-vector-illustration_uygr8u.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383774/7628485_pudphj.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383776/kawaii-lemon-cartoon-clipart-vector_agbvdt.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383778/sticker-png-clapping-emoji-hand-applause-drawing-finger-glove-gesture-thumb-thumbnail_denbjk.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383779/vector-chocolate-bar-cartoon_gkk0jf.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383781/imagesegeee_ifgybo.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383783/baikal-seal-seal-getting-attacked_qvqhzt.gif</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383787/foca_2_yvqb2b.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383787/hq720_geifgp.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383789/5d2f6901ffda749adb5cc52077433e73_rxns7w.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383791/images333_zw8zfz.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383793/pares-impares-mini_vq2jqb.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383795/2849909_n3fkc9.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383797/imagesaaaa_nihy4z.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383799/launch-vehicle-rocket-launch-spacecraft-startup-company-rocket-flat-design-weapons-beak-vehicle-drawing_xa84n1.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383801/cangrejo-lindo-cangrejo-de-dibujos-animados-kawaii-pegatina_vfkw3o.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383803/istockphoto-1168770139-612x612_zext2w.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383805/fdknkfnb_qzcbzu.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383807/1_HcstVLupY6Q1o_6QVDuNew_rffqgc.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383812/how-to-draw-popcorn-step-6_np0hc5.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383812/personaje-cucaracha-dibujos-animados-aislado-vector-bug_8071-36365_n9jq8a.avif</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383814/sandwich-pan-fresco-queso-ilustracion-comida-tiendas-mercados_599062-3466_zmk1m0.avif</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dw4favmoa/image/upload/v1750383723/bright-titmouse-blue-bird-yellow-600nw-2592780383_tvaraq.webp</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>Aplauso "sevens"</t>
+  </si>
+  <si>
+    <t>Se realiza una secuencia rítmica de 7 pasos y se repite varias veces, cambiando la ejecución de los pasos.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Zdv-0kjNZRg?si=y8UFI9lq9zQeSF-0</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dqcokurje/image/upload/v1750390210/descarga_savmmm.jpg</t>
+  </si>
 </sst>
 </file>
 
@@ -616,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -629,6 +788,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -967,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31B3D32-BD2A-8941-92F1-9434887BEF40}">
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -986,7 +1148,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1018,7 +1182,9 @@
         <v>13</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1050,7 +1216,9 @@
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1082,7 +1250,9 @@
         <v>16</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1114,7 +1284,9 @@
         <v>17</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1146,7 +1318,9 @@
         <v>18</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1178,7 +1352,9 @@
         <v>20</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1210,7 +1386,9 @@
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1242,7 +1420,9 @@
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1274,7 +1454,9 @@
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1306,7 +1488,9 @@
         <v>26</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1332,11 +1516,17 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1362,13 +1552,15 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>115</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1394,13 +1586,15 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>116</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1426,13 +1620,15 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>117</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1458,13 +1654,15 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>118</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1490,13 +1688,15 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>119</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1522,13 +1722,15 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>120</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1554,13 +1756,15 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1586,13 +1790,15 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1622,9 +1828,11 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1650,13 +1858,15 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>46</v>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>124</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1688,7 +1898,9 @@
         <v>11</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1714,13 +1926,15 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>48</v>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>126</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1749,12 +1963,14 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>50</v>
+      <c r="D25" s="4" t="s">
+        <v>127</v>
       </c>
-      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1780,13 +1996,15 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1812,13 +2030,15 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>54</v>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>129</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1844,13 +2064,15 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>56</v>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4" t="s">
+        <v>130</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1876,13 +2098,15 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>58</v>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>131</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1908,13 +2132,15 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1940,13 +2166,15 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>62</v>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4" t="s">
+        <v>133</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1972,13 +2200,15 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>134</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2004,13 +2234,15 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>66</v>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>135</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2036,13 +2268,15 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>68</v>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>136</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2068,13 +2302,15 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>70</v>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>137</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2100,13 +2336,15 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2132,13 +2370,15 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>74</v>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4" t="s">
+        <v>139</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2164,13 +2404,15 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>76</v>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>140</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2196,13 +2438,15 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>78</v>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4" t="s">
+        <v>141</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2228,13 +2472,15 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>80</v>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4" t="s">
+        <v>142</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2260,15 +2506,17 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>83</v>
+      <c r="D41" s="4" t="s">
+        <v>143</v>
       </c>
-      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2294,13 +2542,15 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2326,15 +2576,17 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>88</v>
+      <c r="D43" s="4" t="s">
+        <v>145</v>
       </c>
-      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2360,13 +2612,15 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>90</v>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4" t="s">
+        <v>146</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2392,13 +2646,15 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>92</v>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
+        <v>147</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2424,15 +2680,17 @@
     </row>
     <row r="46" spans="1:26" ht="409.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>95</v>
+      <c r="D46" s="4" t="s">
+        <v>148</v>
       </c>
-      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2458,13 +2716,15 @@
     </row>
     <row r="47" spans="1:26" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>97</v>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4" t="s">
+        <v>149</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2490,13 +2750,15 @@
     </row>
     <row r="48" spans="1:26" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>99</v>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5" t="s">
+        <v>150</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2522,13 +2784,15 @@
     </row>
     <row r="49" spans="1:26" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>101</v>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4" t="s">
+        <v>151</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2552,15 +2816,17 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="221.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2586,13 +2852,15 @@
     </row>
     <row r="51" spans="1:26" ht="371.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>105</v>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4" t="s">
+        <v>153</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -29214,6 +29482,57 @@
     <hyperlink ref="C43" r:id="rId14" xr:uid="{FA675513-5D6D-4E54-B04C-6BD6657FA097}"/>
     <hyperlink ref="C46" r:id="rId15" xr:uid="{443778CB-3980-456E-8008-97487E03BD92}"/>
     <hyperlink ref="C50" r:id="rId16" xr:uid="{621EDE42-54A5-4A54-9B05-22C665B528B9}"/>
+    <hyperlink ref="D2" r:id="rId17" xr:uid="{935A11B3-2A26-4E45-9724-5D69E75E3DDD}"/>
+    <hyperlink ref="D3" r:id="rId18" xr:uid="{02472BD3-2AF5-400A-B714-97C138E31F59}"/>
+    <hyperlink ref="D4" r:id="rId19" xr:uid="{D2F3E230-74F5-4A1E-A303-ED83CC3BD75F}"/>
+    <hyperlink ref="D5" r:id="rId20" xr:uid="{A3455648-2DBB-46B2-A86C-9C2313A96E87}"/>
+    <hyperlink ref="D6" r:id="rId21" xr:uid="{BE0F8BD0-0362-47DF-87E9-89F7888AD7F8}"/>
+    <hyperlink ref="D7" r:id="rId22" xr:uid="{36B399BB-D799-4EE6-8F53-D749176DFFEA}"/>
+    <hyperlink ref="D8" r:id="rId23" xr:uid="{903C364B-12F9-4BD7-8093-D5A166893A0C}"/>
+    <hyperlink ref="D9" r:id="rId24" xr:uid="{A50DB666-65EA-4AFF-B1AA-C0CAA21B029F}"/>
+    <hyperlink ref="D10" r:id="rId25" xr:uid="{A6A6CFC1-77F8-4FF8-A008-22FFEC493FEC}"/>
+    <hyperlink ref="D11" r:id="rId26" xr:uid="{D6934325-AF18-4730-B6C4-5364492246B7}"/>
+    <hyperlink ref="D13" r:id="rId27" xr:uid="{9EC38BF1-D61E-44D9-BA32-EE090C539687}"/>
+    <hyperlink ref="D14" r:id="rId28" xr:uid="{BCE7A8E8-8A74-457B-8944-5326B113BBC8}"/>
+    <hyperlink ref="D15" r:id="rId29" xr:uid="{49FA5298-778C-4A47-A305-ED3E9A8F0DA2}"/>
+    <hyperlink ref="D16" r:id="rId30" xr:uid="{5C57F1FF-ECF6-483F-8728-E0C1E8B10CFD}"/>
+    <hyperlink ref="D17" r:id="rId31" xr:uid="{2FFB7CEB-DE0F-4CA4-B876-6C92D7229D00}"/>
+    <hyperlink ref="D18" r:id="rId32" xr:uid="{BEBEBCD8-178F-4960-A8F4-E9A2FB4290A3}"/>
+    <hyperlink ref="D19" r:id="rId33" xr:uid="{1B687602-F8D3-4BDC-8C5F-4658E2D27ACE}"/>
+    <hyperlink ref="D20" r:id="rId34" xr:uid="{D7EA8AA0-6CDD-4060-B675-3623DE9C6BF2}"/>
+    <hyperlink ref="D21" r:id="rId35" xr:uid="{CDB66566-80F9-4314-9C91-B3ABF02748A0}"/>
+    <hyperlink ref="D22" r:id="rId36" xr:uid="{C5AE502C-A7DC-47EC-B9F8-C06389D9B55C}"/>
+    <hyperlink ref="D23" r:id="rId37" xr:uid="{871DD70D-C12A-4039-8A83-0476F361ECAA}"/>
+    <hyperlink ref="D24" r:id="rId38" xr:uid="{AA0747EF-B802-4225-A7A4-49FBE7C39AEF}"/>
+    <hyperlink ref="D25" r:id="rId39" xr:uid="{C18D4E2A-A9C5-44DA-9839-947D4B81CDCA}"/>
+    <hyperlink ref="D26" r:id="rId40" xr:uid="{19587EDD-BD43-4D5E-BCD6-763E55EC37B7}"/>
+    <hyperlink ref="D27" r:id="rId41" xr:uid="{E24D54E9-6EC2-457C-8038-29174F46012E}"/>
+    <hyperlink ref="D28" r:id="rId42" xr:uid="{C44138D8-25CE-4B21-93B2-4FC327220D8E}"/>
+    <hyperlink ref="D29" r:id="rId43" xr:uid="{3471F5ED-D6EC-488E-8C72-432BE7C60CAA}"/>
+    <hyperlink ref="D30" r:id="rId44" xr:uid="{7FFE7ECA-8702-4016-AC93-37B63CE37964}"/>
+    <hyperlink ref="D31" r:id="rId45" xr:uid="{AA89D73B-7AF5-49C3-BAA8-D077915468AA}"/>
+    <hyperlink ref="D32" r:id="rId46" xr:uid="{242F5896-BC39-446D-B0BC-E8F1EF4196BC}"/>
+    <hyperlink ref="D33" r:id="rId47" xr:uid="{4CFE7248-093E-4A02-86DE-3F3C2E8B241C}"/>
+    <hyperlink ref="D34" r:id="rId48" xr:uid="{885D7009-52FE-459E-82EB-44B3F88E5055}"/>
+    <hyperlink ref="D35" r:id="rId49" xr:uid="{95F6FDD8-CF25-468F-A69E-A076C1CC7C74}"/>
+    <hyperlink ref="D36" r:id="rId50" xr:uid="{A4549931-7665-46D3-B823-6386FB4A35D8}"/>
+    <hyperlink ref="D37" r:id="rId51" xr:uid="{DE1AF380-10C3-47A3-B260-BCB9E947DD78}"/>
+    <hyperlink ref="D38" r:id="rId52" xr:uid="{3F2297DD-DC22-4BEF-964C-F20575B3C579}"/>
+    <hyperlink ref="D39" r:id="rId53" xr:uid="{DCC36B9A-89E4-4BF9-AF9F-053D6DC5C57F}"/>
+    <hyperlink ref="D40" r:id="rId54" xr:uid="{8945F564-86B2-4EDF-994D-9BD5EB9D818D}"/>
+    <hyperlink ref="D41" r:id="rId55" xr:uid="{7A1D136C-9C3B-43AD-BB36-D80DA1F062A3}"/>
+    <hyperlink ref="D42" r:id="rId56" xr:uid="{7D54498F-B428-4E24-8456-EC4DC16A2667}"/>
+    <hyperlink ref="D43" r:id="rId57" xr:uid="{39D53254-13E1-41E1-8763-E51CA8C6F702}"/>
+    <hyperlink ref="D44" r:id="rId58" xr:uid="{62ADFC3B-F00F-4B1A-9E8D-E05E599878B9}"/>
+    <hyperlink ref="D45" r:id="rId59" xr:uid="{64869128-7528-4C6D-97A2-C72A4D5834B1}"/>
+    <hyperlink ref="D46" r:id="rId60" xr:uid="{7B1EC727-E013-4332-B54C-8D6AF230BFB6}"/>
+    <hyperlink ref="D47" r:id="rId61" xr:uid="{DAB219CC-A5C9-4A72-886A-623B43F2BCA1}"/>
+    <hyperlink ref="D48" r:id="rId62" xr:uid="{FD4C9BB7-F59C-4DB5-A19F-59BE7B6C2B9C}"/>
+    <hyperlink ref="D49" r:id="rId63" xr:uid="{F1403E4E-2483-470A-913B-28C6F1E5B379}"/>
+    <hyperlink ref="D50" r:id="rId64" xr:uid="{C17FEE22-8171-41F0-869E-25849950FF95}"/>
+    <hyperlink ref="D51" r:id="rId65" xr:uid="{5BB26F4A-F72B-421B-902E-85675CD8D7D1}"/>
+    <hyperlink ref="C12" r:id="rId66" xr:uid="{B42EF10E-D9A7-4ABD-ACE0-2C7BAF080971}"/>
+    <hyperlink ref="D12" r:id="rId67" xr:uid="{D9ABF783-14D2-4D37-ACC5-59A70713A550}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
